--- a/experiments/human_evaluations/get_response_human_eval.xlsx
+++ b/experiments/human_evaluations/get_response_human_eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iTA\experiments\human_evaluations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E3A47E-1AA4-4E37-8906-D662ABAE1114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90508F5D-A361-4DAE-B1B5-604D582BEADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2265,7 +2265,7 @@
   <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,6 +2360,12 @@
       <c r="L2">
         <v>0.84363192319869995</v>
       </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2398,6 +2404,12 @@
       <c r="L3">
         <v>0.83224135637283303</v>
       </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2436,6 +2448,12 @@
       <c r="L4">
         <v>0.85857623815536499</v>
       </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2474,6 +2492,12 @@
       <c r="L5">
         <v>0.837718725204467</v>
       </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2512,6 +2536,12 @@
       <c r="L6">
         <v>0.80785053968429499</v>
       </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2550,6 +2580,12 @@
       <c r="L7">
         <v>0.81892347335815396</v>
       </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2588,6 +2624,12 @@
       <c r="L8">
         <v>0.84325569868087702</v>
       </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2626,6 +2668,12 @@
       <c r="L9">
         <v>0.83260607719421298</v>
       </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2664,6 +2712,12 @@
       <c r="L10">
         <v>0.85795843601226796</v>
       </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2702,6 +2756,12 @@
       <c r="L11">
         <v>0.84508109092712402</v>
       </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2740,6 +2800,12 @@
       <c r="L12">
         <v>0.83727377653121904</v>
       </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2778,6 +2844,12 @@
       <c r="L13">
         <v>0.84486991167068404</v>
       </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2816,6 +2888,12 @@
       <c r="L14">
         <v>0.83653277158737105</v>
       </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2854,6 +2932,12 @@
       <c r="L15">
         <v>0.84053754806518499</v>
       </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2892,8 +2976,14 @@
       <c r="L16">
         <v>0.843458592891693</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2930,8 +3020,14 @@
       <c r="L17">
         <v>0.84215140342712402</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2968,8 +3064,14 @@
       <c r="L18">
         <v>0.84436112642288197</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3006,8 +3108,14 @@
       <c r="L19">
         <v>0.86637830734252896</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3044,8 +3152,14 @@
       <c r="L20">
         <v>0.838534295558929</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -3082,8 +3196,14 @@
       <c r="L21">
         <v>0.85541754961013705</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3120,8 +3240,14 @@
       <c r="L22">
         <v>0.80809932947158802</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -3158,8 +3284,14 @@
       <c r="L23">
         <v>0.84081274271011297</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3196,8 +3328,14 @@
       <c r="L24">
         <v>0.83202576637268</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3234,8 +3372,14 @@
       <c r="L25">
         <v>0.83918422460555997</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3272,8 +3416,14 @@
       <c r="L26">
         <v>0.867073655128479</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -3310,8 +3460,14 @@
       <c r="L27">
         <v>0.83766442537307695</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3348,8 +3504,14 @@
       <c r="L28">
         <v>0.81129902601241999</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -3386,8 +3548,14 @@
       <c r="L29">
         <v>0.83146101236343295</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -3424,8 +3592,14 @@
       <c r="L30">
         <v>0.87214481830596902</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -3462,8 +3636,14 @@
       <c r="L31">
         <v>0.84447878599166804</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -3500,8 +3680,14 @@
       <c r="L32">
         <v>0.85428750514984098</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -3538,8 +3724,14 @@
       <c r="L33">
         <v>0.84923511743545499</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -3576,8 +3768,14 @@
       <c r="L34">
         <v>0.82208114862442005</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -3614,8 +3812,14 @@
       <c r="L35">
         <v>0.842382311820983</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -3652,8 +3856,14 @@
       <c r="L36">
         <v>0.82934910058975198</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3690,8 +3900,14 @@
       <c r="L37">
         <v>0.83634763956069902</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -3728,8 +3944,14 @@
       <c r="L38">
         <v>0.918221175670623</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -3766,8 +3988,14 @@
       <c r="L39">
         <v>0.81732308864593495</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -3804,8 +4032,14 @@
       <c r="L40">
         <v>0.85408580303192105</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -3842,8 +4076,14 @@
       <c r="L41">
         <v>0.82832300662994296</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -3880,8 +4120,14 @@
       <c r="L42">
         <v>0.82398557662963801</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -3918,8 +4164,14 @@
       <c r="L43">
         <v>0.86635869741439797</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -3956,8 +4208,14 @@
       <c r="L44">
         <v>0.86693692207336404</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -3994,8 +4252,14 @@
       <c r="L45">
         <v>0.84108716249465898</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -4032,8 +4296,14 @@
       <c r="L46">
         <v>0.82963448762893599</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -4070,8 +4340,14 @@
       <c r="L47">
         <v>0.84936362504959095</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -4108,8 +4384,14 @@
       <c r="L48">
         <v>0.83392494916915805</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -4146,8 +4428,14 @@
       <c r="L49">
         <v>0.84495037794113104</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -4184,8 +4472,14 @@
       <c r="L50">
         <v>0.81300818920135498</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -4222,8 +4516,14 @@
       <c r="L51">
         <v>0.84040123224258401</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -4260,8 +4560,14 @@
       <c r="L52">
         <v>0.87510609626769997</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -4298,8 +4604,14 @@
       <c r="L53">
         <v>0.85849314928054798</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -4336,8 +4648,14 @@
       <c r="L54">
         <v>0.82624721527099598</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,8 +4692,14 @@
       <c r="L55">
         <v>0.83675181865692105</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -4412,8 +4736,14 @@
       <c r="L56">
         <v>0.83655041456222501</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -4450,8 +4780,14 @@
       <c r="L57">
         <v>0.82365316152572599</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -4488,8 +4824,14 @@
       <c r="L58">
         <v>0.82768601179122903</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -4526,8 +4868,14 @@
       <c r="L59">
         <v>0.83952087163925104</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -4564,8 +4912,14 @@
       <c r="L60">
         <v>0.84732824563980103</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4956,14 @@
       <c r="L61">
         <v>0.83812272548675504</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -4640,8 +5000,14 @@
       <c r="L62">
         <v>0.85332661867141701</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -4678,8 +5044,14 @@
       <c r="L63">
         <v>0.84904778003692605</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -4716,8 +5088,14 @@
       <c r="L64">
         <v>0.84771388769149703</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -4754,8 +5132,14 @@
       <c r="L65">
         <v>0.86748522520065297</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -4792,8 +5176,14 @@
       <c r="L66">
         <v>0.85837775468826205</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -4830,8 +5220,14 @@
       <c r="L67">
         <v>0.88554960489273005</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>5</v>
+      </c>
+      <c r="N67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -4868,8 +5264,14 @@
       <c r="L68">
         <v>0.87270325422286898</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -4906,8 +5308,14 @@
       <c r="L69">
         <v>0.803361356258392</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -4944,8 +5352,14 @@
       <c r="L70">
         <v>0.84114831686019897</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -4982,8 +5396,14 @@
       <c r="L71">
         <v>0.84936493635177601</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5440,14 @@
       <c r="L72">
         <v>0.82973790168762196</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -5058,8 +5484,14 @@
       <c r="L73">
         <v>0.79102003574371305</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -5096,8 +5528,14 @@
       <c r="L74">
         <v>0.81561458110809304</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -5134,8 +5572,14 @@
       <c r="L75">
         <v>0.86147397756576505</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -5172,8 +5616,14 @@
       <c r="L76">
         <v>0.84218734502792303</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>4</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -5210,8 +5660,14 @@
       <c r="L77">
         <v>0.83064424991607599</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>4</v>
+      </c>
+      <c r="N77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -5248,8 +5704,14 @@
       <c r="L78">
         <v>0.82801657915115301</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -5286,8 +5748,14 @@
       <c r="L79">
         <v>0.82182222604751498</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>5</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -5324,8 +5792,14 @@
       <c r="L80">
         <v>0.80159300565719604</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -5362,8 +5836,14 @@
       <c r="L81">
         <v>0.83286923170089699</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5880,14 @@
       <c r="L82">
         <v>0.81321704387664795</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -5438,8 +5924,14 @@
       <c r="L83">
         <v>0.79130816459655695</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -5476,8 +5968,14 @@
       <c r="L84">
         <v>0.82754576206207198</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -5514,8 +6012,14 @@
       <c r="L85">
         <v>0.82846504449844305</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -5552,8 +6056,14 @@
       <c r="L86">
         <v>0.81264859437942505</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -5590,8 +6100,14 @@
       <c r="L87">
         <v>0.79855811595916704</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -5628,8 +6144,14 @@
       <c r="L88">
         <v>0.82122880220413197</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -5666,8 +6188,14 @@
       <c r="L89">
         <v>0.81905090808868397</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -5704,8 +6232,14 @@
       <c r="L90">
         <v>0.81012535095214799</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -5742,8 +6276,14 @@
       <c r="L91">
         <v>0.80425304174423196</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -5780,8 +6320,14 @@
       <c r="L92">
         <v>0.797490894794464</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -5818,8 +6364,14 @@
       <c r="L93">
         <v>0.80325579643249501</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -5856,8 +6408,14 @@
       <c r="L94">
         <v>0.798695087432861</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -5894,8 +6452,14 @@
       <c r="L95">
         <v>0.814547538757324</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <v>4</v>
+      </c>
+      <c r="N95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -5932,8 +6496,14 @@
       <c r="L96">
         <v>0.83431035280227595</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -5970,8 +6540,14 @@
       <c r="L97">
         <v>0.80619519948959295</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -6008,8 +6584,14 @@
       <c r="L98">
         <v>0.82324385643005304</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -6046,8 +6628,14 @@
       <c r="L99">
         <v>0.80867373943328802</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -6084,8 +6672,14 @@
       <c r="L100">
         <v>0.81362485885620095</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -6122,8 +6716,14 @@
       <c r="L101">
         <v>0.81402468681335405</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -6160,8 +6760,11 @@
       <c r="L102">
         <v>0.79415559768676702</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -6198,8 +6801,14 @@
       <c r="L103">
         <v>0.81334900856018</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -6236,8 +6845,14 @@
       <c r="L104">
         <v>0.80098670721053999</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -6274,8 +6889,14 @@
       <c r="L105">
         <v>0.798048555850982</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -6312,8 +6933,14 @@
       <c r="L106">
         <v>0.82540458440780595</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -6350,8 +6977,14 @@
       <c r="L107">
         <v>0.80089098215103105</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -6388,8 +7021,14 @@
       <c r="L108">
         <v>0.79021459817886297</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -6426,8 +7065,14 @@
       <c r="L109">
         <v>0.81896942853927601</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -6464,8 +7109,14 @@
       <c r="L110">
         <v>0.79984569549560502</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -6502,8 +7153,11 @@
       <c r="L111">
         <v>0.81338948011398304</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -6540,8 +7194,14 @@
       <c r="L112">
         <v>0.81341248750686601</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -6578,8 +7238,14 @@
       <c r="L113">
         <v>0.82436418533325195</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -6616,8 +7282,14 @@
       <c r="L114">
         <v>0.81260478496551503</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <v>5</v>
+      </c>
+      <c r="N114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -6654,8 +7326,14 @@
       <c r="L115">
         <v>0.81315582990646296</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -6691,6 +7369,12 @@
       </c>
       <c r="L116">
         <v>0.79915493726730302</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
